--- a/data/accounts_data.xlsx
+++ b/data/accounts_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Private Key EVM</t>
   </si>
@@ -30,10 +30,16 @@
     <t>ADDRESS NFT TO UPDATE METADATA</t>
   </si>
   <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
     <t>your private key</t>
   </si>
   <si>
     <t>log:pass@ip:port</t>
+  </si>
+  <si>
+    <t>log:pass</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -108,8 +114,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,9 +415,10 @@
     <col min="1" max="1" width="70.28515625" customWidth="1"/>
     <col min="2" max="2" width="69.42578125" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,21 +428,30 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
